--- a/medicine/Premiers secours et secourisme/Pompiers_de_l'urgence_internationale/Pompiers_de_l'urgence_internationale.xlsx
+++ b/medicine/Premiers secours et secourisme/Pompiers_de_l'urgence_internationale/Pompiers_de_l'urgence_internationale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pompiers_de_l%27urgence_internationale</t>
+          <t>Pompiers_de_l'urgence_internationale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pompiers de l’urgence internationale (PUI) est une organisation de solidarité internationale (OSI) et une association agréée de sécurité civile (AASC). 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pompiers_de_l%27urgence_internationale</t>
+          <t>Pompiers_de_l'urgence_internationale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pompiers de l’urgence internationale est fondé en 2004 par un groupe de pompiers souhaitant mettre leur expérience et leur savoir-faire opérationnels au service des populations en difficulté à la suite d'une catastrophe naturelle et/ou humanitaire[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pompiers de l’urgence internationale est fondé en 2004 par un groupe de pompiers souhaitant mettre leur expérience et leur savoir-faire opérationnels au service des populations en difficulté à la suite d'une catastrophe naturelle et/ou humanitaire.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pompiers_de_l%27urgence_internationale</t>
+          <t>Pompiers_de_l'urgence_internationale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">PUI compte environ 130 membres, hommes et femmes, tous bénévoles à l’exception d’une salariée à temps partiel. Les membres appartiennent à 90% au corps des sapeurs-pompiers, professionnels et volontaires (50/50) avec différentes spécialités (sauvetage déblaiement, GRIMP[Quoi ?], cynotechnie, risques technologiques ...) ainsi que du personnel médical (médecins, infirmiers…), des logisticiens, des experts bâtimentaires, etc.
 Le siège social de PUI se situe à Limoges mais l’association dispose de 3 antennes régionales (Centre-Est, Ouest et Sud), ses membres étant répartis sur toute la France. 
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pompiers_de_l%27urgence_internationale</t>
+          <t>Pompiers_de_l'urgence_internationale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,23 +590,25 @@
           <t>Missions d'urgence 2004–2018</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2018 Séisme en Indonésie : aide à la recherche et au sauvetage de victimes avec du matériel de localisation de pointe aux côtés de l'équipe Jakarta Rescue Team Indonesia ;
-2017 Ouragan à Saint-Martin et Saint-Barthélémy, Guadeloupe[2] : soutien logistique, soins médicaux et production d'eau potable ;
-2017 Cyclone à Madagascar : installation d'un camp de sinistrés[3] ;
-2016 Séisme en Équateur : reconnaissance et évaluation des dégâts[4] ;
-2016 Ouragan en Haïti : soins médicaux et secours à personnes[5] ;
-2015 Séisme au Népal : recherches cynotechniques de victimes ensevelies[6] ;
-2014 Inondations en Bosnie : production et distribution d’eau potable à Srebrenik[7] ;
-2013 Typhon à Guiuan, Philippines : mise en place de postes médicaux avancés mobiles (prise en charge des blessés, soins et évacuation) et production et distribution de 40m3/j d’eau potable à la population[8] ;
+2017 Ouragan à Saint-Martin et Saint-Barthélémy, Guadeloupe : soutien logistique, soins médicaux et production d'eau potable ;
+2017 Cyclone à Madagascar : installation d'un camp de sinistrés ;
+2016 Séisme en Équateur : reconnaissance et évaluation des dégâts ;
+2016 Ouragan en Haïti : soins médicaux et secours à personnes ;
+2015 Séisme au Népal : recherches cynotechniques de victimes ensevelies ;
+2014 Inondations en Bosnie : production et distribution d’eau potable à Srebrenik ;
+2013 Typhon à Guiuan, Philippines : mise en place de postes médicaux avancés mobiles (prise en charge des blessés, soins et évacuation) et production et distribution de 40m3/j d’eau potable à la population ;
 2013 Cyclone à Madagascar : mise en place d’un poste médical avancé à Tulear avec prise en charge des blessés et évaluation des dégâts ;
 2012 Cyclone à Madagascar : soutien médical à l’hôpital de Brickaville dans le cadre de 2 missions de secours ;
 2012 Explosion d'un dépôt d'armes à Brazzaville, Congo : évaluation des dégâts bâtimentaires ;
 2010 Séisme en Haïti : sauvetage de deux enfants ensevelis sortis vivants des décombres dans le cadre de 4 missions de secours à Port-au-Prince et Jacmel ;
 2009 Séisme à Sumatra, Indonésie : secours à personnes ;
 2009 Inondations au Burkina Faso : soutien logistique ;
-2009 Séisme à l'Aquila, Italie : recherches de victimes ensevelies et secours à personnes[9] ;</t>
+2009 Séisme à l'Aquila, Italie : recherches de victimes ensevelies et secours à personnes ;</t>
         </is>
       </c>
     </row>
